--- a/RmdExamples/pdf_data_driven_CV/CVdata.xlsx
+++ b/RmdExamples/pdf_data_driven_CV/CVdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colin/Travail/Enseignements/R/RmdExamples/pdf_data_driven_CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA603F2-185F-1A4D-A8D8-4E63465C35B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98D6BA1-3201-FF40-8A83-FA4B2EFF7309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{61526CED-58DF-3345-B062-3B5D246F974F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
   <si>
     <t>entry_type</t>
   </si>
@@ -91,12 +91,6 @@
     <t>Post-Doc</t>
   </si>
   <si>
-    <t>City, Coutry</t>
-  </si>
-  <si>
-    <t>City2, Coutry2</t>
-  </si>
-  <si>
     <t>Dec. 2015 - Sept. 2017</t>
   </si>
   <si>
@@ -193,12 +187,6 @@
     <t>when</t>
   </si>
   <si>
-    <t>University of Lyon</t>
-  </si>
-  <si>
-    <t>University of Boston</t>
-  </si>
-  <si>
     <t>internship on this and that</t>
   </si>
   <si>
@@ -266,6 +254,15 @@
   </si>
   <si>
     <t>what I got it for</t>
+  </si>
+  <si>
+    <t>City, Country</t>
+  </si>
+  <si>
+    <t>University of City</t>
+  </si>
+  <si>
+    <t>University of City2</t>
   </si>
 </sst>
 </file>
@@ -659,7 +656,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -678,16 +675,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>6</v>
@@ -731,16 +728,16 @@
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -762,13 +759,13 @@
         <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -782,28 +779,28 @@
     </row>
     <row r="4" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -815,28 +812,28 @@
     </row>
     <row r="5" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -848,19 +845,19 @@
     </row>
     <row r="6" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -875,19 +872,19 @@
     </row>
     <row r="7" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -902,19 +899,19 @@
     </row>
     <row r="8" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -929,22 +926,22 @@
     </row>
     <row r="9" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E9" s="4">
         <v>2017</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -958,19 +955,19 @@
     </row>
     <row r="10" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -985,22 +982,22 @@
     </row>
     <row r="11" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="E11" s="4">
         <v>2020</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1014,16 +1011,16 @@
     </row>
     <row r="12" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E12" s="4">
         <v>2020</v>
@@ -1041,20 +1038,20 @@
     </row>
     <row r="13" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4">
         <v>2019</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1068,20 +1065,20 @@
     </row>
     <row r="14" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E14" s="4">
         <v>2012</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1095,14 +1092,14 @@
     </row>
     <row r="15" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E15" s="4">
         <v>2014</v>
